--- a/Reuniones/Asistencia/Asistencia_Sprints.xlsx
+++ b/Reuniones/Asistencia/Asistencia_Sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanv\Proyecto-SP\Reuniones\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F1E8B4-A394-483B-9B4F-F93597466230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2471863-249F-42AD-A087-CAEFCC31A018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{7ACB4728-31AA-401E-9FB6-82724269CEE0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Fecha Asistencia</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Preparación del proyecto para tipos de push en el en cada rama (Idea de los integrantes del equipo)</t>
+  </si>
+  <si>
+    <t>Ha hecho Método mover en clase Ovni, ha inicializado el Controlador</t>
+  </si>
+  <si>
+    <t>Ha hecho la clase nave con los metodos y atributos necesarios</t>
+  </si>
+  <si>
+    <t>Clase abstracta Disparo y a agregado los métodos abstractos, junto al método desaparecer en DisparoAmigo y Enemigo</t>
   </si>
 </sst>
 </file>
@@ -449,7 +458,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +505,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -506,11 +515,21 @@
       <c r="A3" s="3">
         <v>46065</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">

--- a/Reuniones/Asistencia/Asistencia_Sprints.xlsx
+++ b/Reuniones/Asistencia/Asistencia_Sprints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanv\Proyecto-SP\Reuniones\Asistencia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanv\Proyect-SP\Reuniones\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2471863-249F-42AD-A087-CAEFCC31A018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E069D2B8-0FAE-49B9-8F4F-715340DF21E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{7ACB4728-31AA-401E-9FB6-82724269CEE0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{7ACB4728-31AA-401E-9FB6-82724269CEE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Primer_Sprint" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Fecha Asistencia</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Clase abstracta Disparo y a agregado los métodos abstractos, junto al método desaparecer en DisparoAmigo y Enemigo</t>
+  </si>
+  <si>
+    <t>No se ha hecho reunión</t>
   </si>
 </sst>
 </file>
@@ -455,23 +458,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8916078C-F631-4E21-92AE-D86B11F135E7}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.26953125" customWidth="1"/>
+    <col min="6" max="6" width="36.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,7 +494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>46064</v>
       </c>
@@ -511,7 +514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>46065</v>
       </c>
@@ -531,19 +534,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>46066</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>46067</v>
+        <v>46069</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -551,9 +564,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>46068</v>
+        <v>46070</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -561,9 +574,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>46069</v>
+        <v>46071</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -571,9 +584,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -581,9 +594,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>46071</v>
+        <v>46073</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -591,9 +604,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>46072</v>
+        <v>46074</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -601,9 +614,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>46073</v>
+        <v>46075</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -611,9 +624,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>46074</v>
+        <v>46076</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -621,9 +634,9 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>46075</v>
+        <v>46077</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -631,9 +644,9 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>46076</v>
+        <v>46078</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -641,9 +654,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>46077</v>
+        <v>46079</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -651,9 +664,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>46078</v>
+        <v>46080</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -661,9 +674,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -671,27 +684,23 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>46080</v>
-      </c>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>46081</v>
-      </c>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -699,7 +708,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -707,7 +716,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -715,23 +724,23 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -739,7 +748,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -747,7 +756,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -755,22 +764,6 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reuniones/Asistencia/Asistencia_Sprints.xlsx
+++ b/Reuniones/Asistencia/Asistencia_Sprints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanv\Proyect-SP\Reuniones\Asistencia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanv\Proyecto-SP\Reuniones\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E069D2B8-0FAE-49B9-8F4F-715340DF21E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107019BD-A6F2-4A88-9C05-47FC1BABFC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{7ACB4728-31AA-401E-9FB6-82724269CEE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{7ACB4728-31AA-401E-9FB6-82724269CEE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Primer_Sprint" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Fecha Asistencia</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>No se ha hecho reunión</t>
+  </si>
+  <si>
+    <t>Ha asistido (Tareas asignadas)</t>
+  </si>
+  <si>
+    <t>metodo mover clicks  Nave en controlador, "refactorización Clase Ovni"</t>
+  </si>
+  <si>
+    <t>Clase nave enemiga, atributos, getters, setters</t>
+  </si>
+  <si>
+    <t>Ha asistido(Tareas Asignadas)</t>
+  </si>
+  <si>
+    <t>Asignación de tareas, merges de develop con las ramas creadas para la actualización, método colisionar de Clases DisparoAmi-Ene, "Refactorización Clase Disparo"</t>
   </si>
 </sst>
 </file>
@@ -461,20 +476,20 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" customWidth="1"/>
-    <col min="6" max="6" width="36.54296875" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>46064</v>
       </c>
@@ -514,7 +529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>46065</v>
       </c>
@@ -534,7 +549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>46066</v>
       </c>
@@ -554,17 +569,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>46069</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>46070</v>
       </c>
@@ -574,7 +599,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>46071</v>
       </c>
@@ -584,7 +609,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>46072</v>
       </c>
@@ -594,7 +619,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>46073</v>
       </c>
@@ -604,7 +629,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>46074</v>
       </c>
@@ -614,7 +639,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>46075</v>
       </c>
@@ -624,7 +649,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>46076</v>
       </c>
@@ -634,7 +659,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>46077</v>
       </c>
@@ -644,7 +669,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>46078</v>
       </c>
@@ -654,7 +679,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>46079</v>
       </c>
@@ -664,7 +689,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>46080</v>
       </c>
@@ -674,7 +699,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>46081</v>
       </c>
@@ -684,7 +709,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -692,7 +717,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -700,7 +725,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -708,7 +733,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -716,7 +741,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -724,7 +749,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -732,7 +757,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -740,7 +765,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -748,7 +773,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -756,7 +781,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>

--- a/Reuniones/Asistencia/Asistencia_Sprints.xlsx
+++ b/Reuniones/Asistencia/Asistencia_Sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanv\Proyecto-SP\Reuniones\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107019BD-A6F2-4A88-9C05-47FC1BABFC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719FB97A-6D42-4107-A7EB-E71712D177FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{7ACB4728-31AA-401E-9FB6-82724269CEE0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Fecha Asistencia</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>Asignación de tareas, merges de develop con las ramas creadas para la actualización, método colisionar de Clases DisparoAmi-Ene, "Refactorización Clase Disparo"</t>
+  </si>
+  <si>
+    <t>Ha inicializado las clases de Batallón y escuadrón</t>
+  </si>
+  <si>
+    <t>Metodos de pintar en Clase Ovni, y pintar en la clase Controlador</t>
+  </si>
+  <si>
+    <t>Refactorización de nave enemiga y nave</t>
+  </si>
+  <si>
+    <t>Inicialización de la clase NaveAmiga, creación de método disparo en NaveAmi</t>
   </si>
 </sst>
 </file>
@@ -476,7 +488,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,11 +605,21 @@
       <c r="A6" s="3">
         <v>46070</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">

--- a/Reuniones/Asistencia/Asistencia_Sprints.xlsx
+++ b/Reuniones/Asistencia/Asistencia_Sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanv\Proyecto-SP\Reuniones\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719FB97A-6D42-4107-A7EB-E71712D177FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75F7E38-3259-4F03-8168-79BDC1ED297C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{7ACB4728-31AA-401E-9FB6-82724269CEE0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Fecha Asistencia</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Inicialización de la clase NaveAmiga, creación de método disparo en NaveAmi</t>
+  </si>
+  <si>
+    <t>Asignación de tareas, push de la nave amiga y puesta para revisión.</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,21 +628,41 @@
       <c r="A7" s="3">
         <v>46071</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>46072</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
